--- a/natmiOut/OldD2/LR-pairs_lrc2p/Amh-Acvr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Amh-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Acvr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.357092728140489</v>
+        <v>0.1560025</v>
       </c>
       <c r="H2">
-        <v>0.357092728140489</v>
+        <v>0.312005</v>
       </c>
       <c r="I2">
-        <v>0.5275468004392498</v>
+        <v>0.1050366275703263</v>
       </c>
       <c r="J2">
-        <v>0.5275468004392498</v>
+        <v>0.07934069952454829</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.28312771147252</v>
+        <v>8.2840475</v>
       </c>
       <c r="N2">
-        <v>8.28312771147252</v>
+        <v>16.568095</v>
       </c>
       <c r="O2">
-        <v>0.1651797650911165</v>
+        <v>0.162064909128062</v>
       </c>
       <c r="P2">
-        <v>0.1651797650911165</v>
+        <v>0.1267883207199013</v>
       </c>
       <c r="Q2">
-        <v>2.957844672025807</v>
+        <v>1.29233212011875</v>
       </c>
       <c r="R2">
-        <v>2.957844672025807</v>
+        <v>5.169328480474999</v>
       </c>
       <c r="S2">
-        <v>0.0871400565711254</v>
+        <v>0.01702275150230301</v>
       </c>
       <c r="T2">
-        <v>0.0871400565711254</v>
+        <v>0.01005947405745975</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.357092728140489</v>
+        <v>0.1560025</v>
       </c>
       <c r="H3">
-        <v>0.357092728140489</v>
+        <v>0.312005</v>
       </c>
       <c r="I3">
-        <v>0.5275468004392498</v>
+        <v>0.1050366275703263</v>
       </c>
       <c r="J3">
-        <v>0.5275468004392498</v>
+        <v>0.07934069952454829</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.0884079620058</v>
+        <v>10.55762366666667</v>
       </c>
       <c r="N3">
-        <v>10.0884079620058</v>
+        <v>31.672871</v>
       </c>
       <c r="O3">
-        <v>0.2011801478081069</v>
+        <v>0.2065440016062932</v>
       </c>
       <c r="P3">
-        <v>0.2011801478081069</v>
+        <v>0.2423785067907964</v>
       </c>
       <c r="Q3">
-        <v>3.602497121746882</v>
+        <v>1.647015686059166</v>
       </c>
       <c r="R3">
-        <v>3.602497121746882</v>
+        <v>9.882094116354999</v>
       </c>
       <c r="S3">
-        <v>0.1061319432880621</v>
+        <v>0.0216946853736051</v>
       </c>
       <c r="T3">
-        <v>0.1061319432880621</v>
+        <v>0.01923048027849727</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.357092728140489</v>
+        <v>0.1560025</v>
       </c>
       <c r="H4">
-        <v>0.357092728140489</v>
+        <v>0.312005</v>
       </c>
       <c r="I4">
-        <v>0.5275468004392498</v>
+        <v>0.1050366275703263</v>
       </c>
       <c r="J4">
-        <v>0.5275468004392498</v>
+        <v>0.07934069952454829</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.86060316207513</v>
+        <v>5.931556333333333</v>
       </c>
       <c r="N4">
-        <v>5.86060316207513</v>
+        <v>17.794669</v>
       </c>
       <c r="O4">
-        <v>0.1168704730053873</v>
+        <v>0.1160419635630586</v>
       </c>
       <c r="P4">
-        <v>0.1168704730053873</v>
+        <v>0.13617475034254</v>
       </c>
       <c r="Q4">
-        <v>2.092778771694185</v>
+        <v>0.9253376168908332</v>
       </c>
       <c r="R4">
-        <v>2.092778771694185</v>
+        <v>5.552025701344999</v>
       </c>
       <c r="S4">
-        <v>0.06165464409981379</v>
+        <v>0.01218865650930236</v>
       </c>
       <c r="T4">
-        <v>0.06165464409981379</v>
+        <v>0.01080419994975784</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.357092728140489</v>
+        <v>0.1560025</v>
       </c>
       <c r="H5">
-        <v>0.357092728140489</v>
+        <v>0.312005</v>
       </c>
       <c r="I5">
-        <v>0.5275468004392498</v>
+        <v>0.1050366275703263</v>
       </c>
       <c r="J5">
-        <v>0.5275468004392498</v>
+        <v>0.07934069952454829</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.42173999120912</v>
+        <v>5.460941333333333</v>
       </c>
       <c r="N5">
-        <v>5.42173999120912</v>
+        <v>16.382824</v>
       </c>
       <c r="O5">
-        <v>0.1081187891009624</v>
+        <v>0.1068350900861377</v>
       </c>
       <c r="P5">
-        <v>0.1081187891009624</v>
+        <v>0.1253705235037399</v>
       </c>
       <c r="Q5">
-        <v>1.936063924729255</v>
+        <v>0.8519205003533333</v>
       </c>
       <c r="R5">
-        <v>1.936063924729255</v>
+        <v>5.111523002119999</v>
       </c>
       <c r="S5">
-        <v>0.05703772125757874</v>
+        <v>0.01122159756881991</v>
       </c>
       <c r="T5">
-        <v>0.05703772125757874</v>
+        <v>0.009946985034545549</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -788,49 +788,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.357092728140489</v>
+        <v>0.1560025</v>
       </c>
       <c r="H6">
-        <v>0.357092728140489</v>
+        <v>0.312005</v>
       </c>
       <c r="I6">
-        <v>0.5275468004392498</v>
+        <v>0.1050366275703263</v>
       </c>
       <c r="J6">
-        <v>0.5275468004392498</v>
+        <v>0.07934069952454829</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.14538998022879</v>
+        <v>6.493894666666667</v>
       </c>
       <c r="N6">
-        <v>6.14538998022879</v>
+        <v>19.481684</v>
       </c>
       <c r="O6">
-        <v>0.1225496103267296</v>
+        <v>0.1270432658722128</v>
       </c>
       <c r="P6">
-        <v>0.1225496103267296</v>
+        <v>0.1490847317785038</v>
       </c>
       <c r="Q6">
-        <v>2.194474073527124</v>
+        <v>1.013063802736667</v>
       </c>
       <c r="R6">
-        <v>2.194474073527124</v>
+        <v>6.07838281642</v>
       </c>
       <c r="S6">
-        <v>0.06465065482294304</v>
+        <v>0.01334419620273756</v>
       </c>
       <c r="T6">
-        <v>0.06465065482294304</v>
+        <v>0.01182848690773615</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.357092728140489</v>
+        <v>0.1560025</v>
       </c>
       <c r="H7">
-        <v>0.357092728140489</v>
+        <v>0.312005</v>
       </c>
       <c r="I7">
-        <v>0.5275468004392498</v>
+        <v>0.1050366275703263</v>
       </c>
       <c r="J7">
-        <v>0.5275468004392498</v>
+        <v>0.07934069952454829</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.3468717139337</v>
+        <v>14.3875515</v>
       </c>
       <c r="N7">
-        <v>14.3468717139337</v>
+        <v>28.775103</v>
       </c>
       <c r="O7">
-        <v>0.2861012146676974</v>
+        <v>0.2814707697442357</v>
       </c>
       <c r="P7">
-        <v>0.2861012146676974</v>
+        <v>0.2202031668645185</v>
       </c>
       <c r="Q7">
-        <v>5.123163560610198</v>
+        <v>2.24449400287875</v>
       </c>
       <c r="R7">
-        <v>5.123163560610198</v>
+        <v>8.977976011515</v>
       </c>
       <c r="S7">
-        <v>0.1509317803997267</v>
+        <v>0.02956474041355835</v>
       </c>
       <c r="T7">
-        <v>0.1509317803997267</v>
+        <v>0.01747107329655173</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.319800256222536</v>
+        <v>0.1331066666666667</v>
       </c>
       <c r="H8">
-        <v>0.319800256222536</v>
+        <v>0.39932</v>
       </c>
       <c r="I8">
-        <v>0.4724531995607502</v>
+        <v>0.08962084180570332</v>
       </c>
       <c r="J8">
-        <v>0.4724531995607502</v>
+        <v>0.1015442961944284</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.28312771147252</v>
+        <v>8.2840475</v>
       </c>
       <c r="N8">
-        <v>8.28312771147252</v>
+        <v>16.568095</v>
       </c>
       <c r="O8">
-        <v>0.1651797650911165</v>
+        <v>0.162064909128062</v>
       </c>
       <c r="P8">
-        <v>0.1651797650911165</v>
+        <v>0.1267883207199013</v>
       </c>
       <c r="Q8">
-        <v>2.6489463644529</v>
+        <v>1.102661949233333</v>
       </c>
       <c r="R8">
-        <v>2.6489463644529</v>
+        <v>6.6159716954</v>
       </c>
       <c r="S8">
-        <v>0.07803970851999111</v>
+        <v>0.01452439358322172</v>
       </c>
       <c r="T8">
-        <v>0.07803970851999111</v>
+        <v>0.01287463079317584</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.319800256222536</v>
+        <v>0.1331066666666667</v>
       </c>
       <c r="H9">
-        <v>0.319800256222536</v>
+        <v>0.39932</v>
       </c>
       <c r="I9">
-        <v>0.4724531995607502</v>
+        <v>0.08962084180570332</v>
       </c>
       <c r="J9">
-        <v>0.4724531995607502</v>
+        <v>0.1015442961944284</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.0884079620058</v>
+        <v>10.55762366666667</v>
       </c>
       <c r="N9">
-        <v>10.0884079620058</v>
+        <v>31.672871</v>
       </c>
       <c r="O9">
-        <v>0.2011801478081069</v>
+        <v>0.2065440016062932</v>
       </c>
       <c r="P9">
-        <v>0.2011801478081069</v>
+        <v>0.2423785067907964</v>
       </c>
       <c r="Q9">
-        <v>3.226275451126927</v>
+        <v>1.405290094191111</v>
       </c>
       <c r="R9">
-        <v>3.226275451126927</v>
+        <v>12.64761084772</v>
       </c>
       <c r="S9">
-        <v>0.09504820452004474</v>
+        <v>0.01851064729387454</v>
       </c>
       <c r="T9">
-        <v>0.09504820452004474</v>
+        <v>0.02461215488472791</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.319800256222536</v>
+        <v>0.1331066666666667</v>
       </c>
       <c r="H10">
-        <v>0.319800256222536</v>
+        <v>0.39932</v>
       </c>
       <c r="I10">
-        <v>0.4724531995607502</v>
+        <v>0.08962084180570332</v>
       </c>
       <c r="J10">
-        <v>0.4724531995607502</v>
+        <v>0.1015442961944284</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.86060316207513</v>
+        <v>5.931556333333333</v>
       </c>
       <c r="N10">
-        <v>5.86060316207513</v>
+        <v>17.794669</v>
       </c>
       <c r="O10">
-        <v>0.1168704730053873</v>
+        <v>0.1160419635630586</v>
       </c>
       <c r="P10">
-        <v>0.1168704730053873</v>
+        <v>0.13617475034254</v>
       </c>
       <c r="Q10">
-        <v>1.874222392850231</v>
+        <v>0.7895296916755555</v>
       </c>
       <c r="R10">
-        <v>1.874222392850231</v>
+        <v>7.10576722508</v>
       </c>
       <c r="S10">
-        <v>0.05521582890557352</v>
+        <v>0.01039977845930807</v>
       </c>
       <c r="T10">
-        <v>0.05521582890557352</v>
+        <v>0.01382776918298522</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.319800256222536</v>
+        <v>0.1331066666666667</v>
       </c>
       <c r="H11">
-        <v>0.319800256222536</v>
+        <v>0.39932</v>
       </c>
       <c r="I11">
-        <v>0.4724531995607502</v>
+        <v>0.08962084180570332</v>
       </c>
       <c r="J11">
-        <v>0.4724531995607502</v>
+        <v>0.1015442961944284</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.42173999120912</v>
+        <v>5.460941333333333</v>
       </c>
       <c r="N11">
-        <v>5.42173999120912</v>
+        <v>16.382824</v>
       </c>
       <c r="O11">
-        <v>0.1081187891009624</v>
+        <v>0.1068350900861377</v>
       </c>
       <c r="P11">
-        <v>0.1081187891009624</v>
+        <v>0.1253705235037399</v>
       </c>
       <c r="Q11">
-        <v>1.733873838360646</v>
+        <v>0.7268876977422223</v>
       </c>
       <c r="R11">
-        <v>1.733873838360646</v>
+        <v>6.54198927968</v>
       </c>
       <c r="S11">
-        <v>0.05108106784338364</v>
+        <v>0.009574650707907813</v>
       </c>
       <c r="T11">
-        <v>0.05108106784338364</v>
+        <v>0.01273066157271431</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.319800256222536</v>
+        <v>0.1331066666666667</v>
       </c>
       <c r="H12">
-        <v>0.319800256222536</v>
+        <v>0.39932</v>
       </c>
       <c r="I12">
-        <v>0.4724531995607502</v>
+        <v>0.08962084180570332</v>
       </c>
       <c r="J12">
-        <v>0.4724531995607502</v>
+        <v>0.1015442961944284</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.14538998022879</v>
+        <v>6.493894666666667</v>
       </c>
       <c r="N12">
-        <v>6.14538998022879</v>
+        <v>19.481684</v>
       </c>
       <c r="O12">
-        <v>0.1225496103267296</v>
+        <v>0.1270432658722128</v>
       </c>
       <c r="P12">
-        <v>0.1225496103267296</v>
+        <v>0.1490847317785038</v>
       </c>
       <c r="Q12">
-        <v>1.965297290264573</v>
+        <v>0.8643806727644445</v>
       </c>
       <c r="R12">
-        <v>1.965297290264573</v>
+        <v>7.779426054880001</v>
       </c>
       <c r="S12">
-        <v>0.05789895550378654</v>
+        <v>0.01138572443321349</v>
       </c>
       <c r="T12">
-        <v>0.05789895550378654</v>
+        <v>0.0151387041617833</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1177 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1331066666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.39932</v>
+      </c>
+      <c r="I13">
+        <v>0.08962084180570332</v>
+      </c>
+      <c r="J13">
+        <v>0.1015442961944284</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>14.3875515</v>
+      </c>
+      <c r="N13">
+        <v>28.775103</v>
+      </c>
+      <c r="O13">
+        <v>0.2814707697442357</v>
+      </c>
+      <c r="P13">
+        <v>0.2202031668645185</v>
+      </c>
+      <c r="Q13">
+        <v>1.91507902166</v>
+      </c>
+      <c r="R13">
+        <v>11.49047412996</v>
+      </c>
+      <c r="S13">
+        <v>0.02522564732817769</v>
+      </c>
+      <c r="T13">
+        <v>0.0223603755990418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.395809</v>
+      </c>
+      <c r="H14">
+        <v>1.187427</v>
+      </c>
+      <c r="I14">
+        <v>0.2664985658690295</v>
+      </c>
+      <c r="J14">
+        <v>0.301954420007166</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.2840475</v>
+      </c>
+      <c r="N14">
+        <v>16.568095</v>
+      </c>
+      <c r="O14">
+        <v>0.162064909128062</v>
+      </c>
+      <c r="P14">
+        <v>0.1267883207199013</v>
+      </c>
+      <c r="Q14">
+        <v>3.2789005569275</v>
+      </c>
+      <c r="R14">
+        <v>19.673403341565</v>
+      </c>
+      <c r="S14">
+        <v>0.0431900658603231</v>
+      </c>
+      <c r="T14">
+        <v>0.03828429384666034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.395809</v>
+      </c>
+      <c r="H15">
+        <v>1.187427</v>
+      </c>
+      <c r="I15">
+        <v>0.2664985658690295</v>
+      </c>
+      <c r="J15">
+        <v>0.301954420007166</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.55762366666667</v>
+      </c>
+      <c r="N15">
+        <v>31.672871</v>
+      </c>
+      <c r="O15">
+        <v>0.2065440016062932</v>
+      </c>
+      <c r="P15">
+        <v>0.2423785067907964</v>
+      </c>
+      <c r="Q15">
+        <v>4.178802465879667</v>
+      </c>
+      <c r="R15">
+        <v>37.609222192917</v>
+      </c>
+      <c r="S15">
+        <v>0.05504368021692768</v>
+      </c>
+      <c r="T15">
+        <v>0.07318726144021788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.395809</v>
+      </c>
+      <c r="H16">
+        <v>1.187427</v>
+      </c>
+      <c r="I16">
+        <v>0.2664985658690295</v>
+      </c>
+      <c r="J16">
+        <v>0.301954420007166</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.931556333333333</v>
+      </c>
+      <c r="N16">
+        <v>17.794669</v>
+      </c>
+      <c r="O16">
+        <v>0.1160419635630586</v>
+      </c>
+      <c r="P16">
+        <v>0.13617475034254</v>
+      </c>
+      <c r="Q16">
+        <v>2.347763380740334</v>
+      </c>
+      <c r="R16">
+        <v>21.129870426663</v>
+      </c>
+      <c r="S16">
+        <v>0.03092501687018131</v>
+      </c>
+      <c r="T16">
+        <v>0.04111856775930229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.395809</v>
+      </c>
+      <c r="H17">
+        <v>1.187427</v>
+      </c>
+      <c r="I17">
+        <v>0.2664985658690295</v>
+      </c>
+      <c r="J17">
+        <v>0.301954420007166</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.460941333333333</v>
+      </c>
+      <c r="N17">
+        <v>16.382824</v>
+      </c>
+      <c r="O17">
+        <v>0.1068350900861377</v>
+      </c>
+      <c r="P17">
+        <v>0.1253705235037399</v>
+      </c>
+      <c r="Q17">
+        <v>2.161489728205333</v>
+      </c>
+      <c r="R17">
+        <v>19.453407553848</v>
+      </c>
+      <c r="S17">
+        <v>0.02847139829244428</v>
+      </c>
+      <c r="T17">
+        <v>0.03785618371056656</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.395809</v>
+      </c>
+      <c r="H18">
+        <v>1.187427</v>
+      </c>
+      <c r="I18">
+        <v>0.2664985658690295</v>
+      </c>
+      <c r="J18">
+        <v>0.301954420007166</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.493894666666667</v>
+      </c>
+      <c r="N18">
+        <v>19.481684</v>
+      </c>
+      <c r="O18">
+        <v>0.1270432658722128</v>
+      </c>
+      <c r="P18">
+        <v>0.1490847317785038</v>
+      </c>
+      <c r="Q18">
+        <v>2.570341954118667</v>
+      </c>
+      <c r="R18">
+        <v>23.133077587068</v>
+      </c>
+      <c r="S18">
+        <v>0.03385684815826252</v>
+      </c>
+      <c r="T18">
+        <v>0.04501679371610202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.395809</v>
+      </c>
+      <c r="H19">
+        <v>1.187427</v>
+      </c>
+      <c r="I19">
+        <v>0.2664985658690295</v>
+      </c>
+      <c r="J19">
+        <v>0.301954420007166</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>14.3875515</v>
+      </c>
+      <c r="N19">
+        <v>28.775103</v>
+      </c>
+      <c r="O19">
+        <v>0.2814707697442357</v>
+      </c>
+      <c r="P19">
+        <v>0.2202031668645185</v>
+      </c>
+      <c r="Q19">
+        <v>5.6947223716635</v>
+      </c>
+      <c r="R19">
+        <v>34.168334229981</v>
+      </c>
+      <c r="S19">
+        <v>0.07501155647089065</v>
+      </c>
+      <c r="T19">
+        <v>0.06649131953431686</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.4331153333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.299346</v>
+      </c>
+      <c r="I20">
+        <v>0.291616954615029</v>
+      </c>
+      <c r="J20">
+        <v>0.3304146426000344</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>8.2840475</v>
+      </c>
+      <c r="N20">
+        <v>16.568095</v>
+      </c>
+      <c r="O20">
+        <v>0.162064909128062</v>
+      </c>
+      <c r="P20">
+        <v>0.1267883207199013</v>
+      </c>
+      <c r="Q20">
+        <v>3.587947994311666</v>
+      </c>
+      <c r="R20">
+        <v>21.52768796587</v>
+      </c>
+      <c r="S20">
+        <v>0.04726087524988683</v>
+      </c>
+      <c r="T20">
+        <v>0.04189271767652472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.319800256222536</v>
-      </c>
-      <c r="H13">
-        <v>0.319800256222536</v>
-      </c>
-      <c r="I13">
-        <v>0.4724531995607502</v>
-      </c>
-      <c r="J13">
-        <v>0.4724531995607502</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>14.3468717139337</v>
-      </c>
-      <c r="N13">
-        <v>14.3468717139337</v>
-      </c>
-      <c r="O13">
-        <v>0.2861012146676974</v>
-      </c>
-      <c r="P13">
-        <v>0.2861012146676974</v>
-      </c>
-      <c r="Q13">
-        <v>4.588133250107852</v>
-      </c>
-      <c r="R13">
-        <v>4.588133250107852</v>
-      </c>
-      <c r="S13">
-        <v>0.1351694342679707</v>
-      </c>
-      <c r="T13">
-        <v>0.1351694342679707</v>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.4331153333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.299346</v>
+      </c>
+      <c r="I21">
+        <v>0.291616954615029</v>
+      </c>
+      <c r="J21">
+        <v>0.3304146426000344</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10.55762366666667</v>
+      </c>
+      <c r="N21">
+        <v>31.672871</v>
+      </c>
+      <c r="O21">
+        <v>0.2065440016062932</v>
+      </c>
+      <c r="P21">
+        <v>0.2423785067907964</v>
+      </c>
+      <c r="Q21">
+        <v>4.572668693596222</v>
+      </c>
+      <c r="R21">
+        <v>41.154018242366</v>
+      </c>
+      <c r="S21">
+        <v>0.06023173274242889</v>
+      </c>
+      <c r="T21">
+        <v>0.08008540769521101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.4331153333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.299346</v>
+      </c>
+      <c r="I22">
+        <v>0.291616954615029</v>
+      </c>
+      <c r="J22">
+        <v>0.3304146426000344</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.931556333333333</v>
+      </c>
+      <c r="N22">
+        <v>17.794669</v>
+      </c>
+      <c r="O22">
+        <v>0.1160419635630586</v>
+      </c>
+      <c r="P22">
+        <v>0.13617475034254</v>
+      </c>
+      <c r="Q22">
+        <v>2.569047998497111</v>
+      </c>
+      <c r="R22">
+        <v>23.121431986474</v>
+      </c>
+      <c r="S22">
+        <v>0.03383980402180731</v>
+      </c>
+      <c r="T22">
+        <v>0.04499413146557926</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.4331153333333333</v>
+      </c>
+      <c r="H23">
+        <v>1.299346</v>
+      </c>
+      <c r="I23">
+        <v>0.291616954615029</v>
+      </c>
+      <c r="J23">
+        <v>0.3304146426000344</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.460941333333333</v>
+      </c>
+      <c r="N23">
+        <v>16.382824</v>
+      </c>
+      <c r="O23">
+        <v>0.1068350900861377</v>
+      </c>
+      <c r="P23">
+        <v>0.1253705235037399</v>
+      </c>
+      <c r="Q23">
+        <v>2.365217425900444</v>
+      </c>
+      <c r="R23">
+        <v>21.286956833104</v>
+      </c>
+      <c r="S23">
+        <v>0.03115492361694176</v>
+      </c>
+      <c r="T23">
+        <v>0.04142425671606744</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.4331153333333333</v>
+      </c>
+      <c r="H24">
+        <v>1.299346</v>
+      </c>
+      <c r="I24">
+        <v>0.291616954615029</v>
+      </c>
+      <c r="J24">
+        <v>0.3304146426000344</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.493894666666667</v>
+      </c>
+      <c r="N24">
+        <v>19.481684</v>
+      </c>
+      <c r="O24">
+        <v>0.1270432658722128</v>
+      </c>
+      <c r="P24">
+        <v>0.1490847317785038</v>
+      </c>
+      <c r="Q24">
+        <v>2.812605353184889</v>
+      </c>
+      <c r="R24">
+        <v>25.313448178664</v>
+      </c>
+      <c r="S24">
+        <v>0.03704797029800213</v>
+      </c>
+      <c r="T24">
+        <v>0.04925977836771632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.4331153333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.299346</v>
+      </c>
+      <c r="I25">
+        <v>0.291616954615029</v>
+      </c>
+      <c r="J25">
+        <v>0.3304146426000344</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.3875515</v>
+      </c>
+      <c r="N25">
+        <v>28.775103</v>
+      </c>
+      <c r="O25">
+        <v>0.2814707697442357</v>
+      </c>
+      <c r="P25">
+        <v>0.2202031668645185</v>
+      </c>
+      <c r="Q25">
+        <v>6.231469163773</v>
+      </c>
+      <c r="R25">
+        <v>37.388814982638</v>
+      </c>
+      <c r="S25">
+        <v>0.08208164868596206</v>
+      </c>
+      <c r="T25">
+        <v>0.0727583506789356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3671865</v>
+      </c>
+      <c r="H26">
+        <v>0.7343730000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.2472270101399119</v>
+      </c>
+      <c r="J26">
+        <v>0.1867459416738229</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>8.2840475</v>
+      </c>
+      <c r="N26">
+        <v>16.568095</v>
+      </c>
+      <c r="O26">
+        <v>0.162064909128062</v>
+      </c>
+      <c r="P26">
+        <v>0.1267883207199013</v>
+      </c>
+      <c r="Q26">
+        <v>3.04179040735875</v>
+      </c>
+      <c r="R26">
+        <v>12.167161629435</v>
+      </c>
+      <c r="S26">
+        <v>0.04006682293232728</v>
+      </c>
+      <c r="T26">
+        <v>0.02367720434608064</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.3671865</v>
+      </c>
+      <c r="H27">
+        <v>0.7343730000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.2472270101399119</v>
+      </c>
+      <c r="J27">
+        <v>0.1867459416738229</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>10.55762366666667</v>
+      </c>
+      <c r="N27">
+        <v>31.672871</v>
+      </c>
+      <c r="O27">
+        <v>0.2065440016062932</v>
+      </c>
+      <c r="P27">
+        <v>0.2423785067907964</v>
+      </c>
+      <c r="Q27">
+        <v>3.8766168824805</v>
+      </c>
+      <c r="R27">
+        <v>23.259701294883</v>
+      </c>
+      <c r="S27">
+        <v>0.05106325597945705</v>
+      </c>
+      <c r="T27">
+        <v>0.04526320249214236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.3671865</v>
+      </c>
+      <c r="H28">
+        <v>0.7343730000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.2472270101399119</v>
+      </c>
+      <c r="J28">
+        <v>0.1867459416738229</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.931556333333333</v>
+      </c>
+      <c r="N28">
+        <v>17.794669</v>
+      </c>
+      <c r="O28">
+        <v>0.1160419635630586</v>
+      </c>
+      <c r="P28">
+        <v>0.13617475034254</v>
+      </c>
+      <c r="Q28">
+        <v>2.1779874095895</v>
+      </c>
+      <c r="R28">
+        <v>13.067924457537</v>
+      </c>
+      <c r="S28">
+        <v>0.02868870770245959</v>
+      </c>
+      <c r="T28">
+        <v>0.02543008198491537</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.3671865</v>
+      </c>
+      <c r="H29">
+        <v>0.7343730000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.2472270101399119</v>
+      </c>
+      <c r="J29">
+        <v>0.1867459416738229</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>5.460941333333333</v>
+      </c>
+      <c r="N29">
+        <v>16.382824</v>
+      </c>
+      <c r="O29">
+        <v>0.1068350900861377</v>
+      </c>
+      <c r="P29">
+        <v>0.1253705235037399</v>
+      </c>
+      <c r="Q29">
+        <v>2.005183934892</v>
+      </c>
+      <c r="R29">
+        <v>12.031103609352</v>
+      </c>
+      <c r="S29">
+        <v>0.02641251990002398</v>
+      </c>
+      <c r="T29">
+        <v>0.02341243646984606</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.3671865</v>
+      </c>
+      <c r="H30">
+        <v>0.7343730000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.2472270101399119</v>
+      </c>
+      <c r="J30">
+        <v>0.1867459416738229</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>6.493894666666667</v>
+      </c>
+      <c r="N30">
+        <v>19.481684</v>
+      </c>
+      <c r="O30">
+        <v>0.1270432658722128</v>
+      </c>
+      <c r="P30">
+        <v>0.1490847317785038</v>
+      </c>
+      <c r="Q30">
+        <v>2.384470454022</v>
+      </c>
+      <c r="R30">
+        <v>14.306822724132</v>
+      </c>
+      <c r="S30">
+        <v>0.03140852677999707</v>
+      </c>
+      <c r="T30">
+        <v>0.027840968625166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.3671865</v>
+      </c>
+      <c r="H31">
+        <v>0.7343730000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.2472270101399119</v>
+      </c>
+      <c r="J31">
+        <v>0.1867459416738229</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>14.3875515</v>
+      </c>
+      <c r="N31">
+        <v>28.775103</v>
+      </c>
+      <c r="O31">
+        <v>0.2814707697442357</v>
+      </c>
+      <c r="P31">
+        <v>0.2202031668645185</v>
+      </c>
+      <c r="Q31">
+        <v>5.282914678854751</v>
+      </c>
+      <c r="R31">
+        <v>21.131658715419</v>
+      </c>
+      <c r="S31">
+        <v>0.06958717684564698</v>
+      </c>
+      <c r="T31">
+        <v>0.04112204775567246</v>
       </c>
     </row>
   </sheetData>
